--- a/Output/AUC CIs.xlsx
+++ b/Output/AUC CIs.xlsx
@@ -1,63 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CIs-All" r:id="rId3" sheetId="1"/>
+    <sheet name="CIs-All" sheetId="1" r:id="rId1"/>
+    <sheet name="CIs-Battles" sheetId="2" r:id="rId2"/>
+    <sheet name="CIs-Riots" sheetId="3" r:id="rId3"/>
+    <sheet name="CIs-VAC" r:id="rId7" sheetId="4"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Plug-In</t>
+  </si>
+  <si>
+    <t>LSCV</t>
+  </si>
+  <si>
+    <t>LSCVRN</t>
+  </si>
+  <si>
+    <t>BCV2</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
   <si>
     <t>LB..1.</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>UB..99.</t>
-  </si>
-  <si>
-    <t>Plug-In</t>
-  </si>
-  <si>
-    <t>LSCV</t>
-  </si>
-  <si>
-    <t>LSCVRN</t>
-  </si>
-  <si>
-    <t>BCV2</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,30 +94,659 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.87774997610697458</v>
+      </c>
+      <c r="C2">
+        <v>0.89512575472209721</v>
+      </c>
+      <c r="D2">
+        <v>0.91132979906655043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.53253878700211166</v>
+      </c>
+      <c r="C3">
+        <v>0.56471235631283589</v>
+      </c>
+      <c r="D3">
+        <v>0.5956862429836477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.93197777868517906</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.94690504248707663</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.96039004372890147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.83354836136511623</v>
+      </c>
+      <c r="C5">
+        <v>0.85473766887056235</v>
+      </c>
+      <c r="D5">
+        <v>0.87468568846326933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.83931095572348724</v>
+      </c>
+      <c r="C6">
+        <v>0.85998098114780319</v>
+      </c>
+      <c r="D6">
+        <v>0.87969502747777739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.90963356359472758</v>
+      </c>
+      <c r="C2">
+        <v>0.93498326040829127</v>
+      </c>
+      <c r="D2">
+        <v>0.95651423510398692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.50360023313731417</v>
+      </c>
+      <c r="C3">
+        <v>0.55880623807821261</v>
+      </c>
+      <c r="D3">
+        <v>0.61517513609635588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.91336199296169229</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.93817235266728716</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.95979884184408903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.90577231606821218</v>
+      </c>
+      <c r="C5">
+        <v>0.9298275420339488</v>
+      </c>
+      <c r="D5">
+        <v>0.94994135486114428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.90745588447914693</v>
+      </c>
+      <c r="C6">
+        <v>0.93125690309923426</v>
+      </c>
+      <c r="D6">
+        <v>0.95144519115870285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.8451484233851585</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.86504478113113037</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.88389449751023563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.8298921180476232</v>
+      </c>
+      <c r="C3">
+        <v>0.85100049178917925</v>
+      </c>
+      <c r="D3">
+        <v>0.87168466388893284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.82983014754149875</v>
+      </c>
+      <c r="C4">
+        <v>0.8510088175869237</v>
+      </c>
+      <c r="D4">
+        <v>0.87174393354528779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.81031530199004753</v>
+      </c>
+      <c r="C5">
+        <v>0.83315441729160566</v>
+      </c>
+      <c r="D5">
+        <v>0.8545640763228104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.81864829268212025</v>
+      </c>
+      <c r="C6">
+        <v>0.84084932329370587</v>
+      </c>
+      <c r="D6">
+        <v>0.86145128154251394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -103,13 +754,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8850875223290933</v>
+        <v>0.8484933742739084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8931572438354214</v>
+        <v>0.8701683159137005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.899636194779914</v>
+        <v>0.8896639438448982</v>
       </c>
     </row>
     <row r="3">
@@ -117,13 +768,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5487132866626677</v>
+        <v>0.43601027156957517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5642464996821517</v>
+        <v>0.4663703175021166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5841830327371489</v>
+        <v>0.4987145691457575</v>
       </c>
     </row>
     <row r="4">
@@ -131,13 +782,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9392016468825802</v>
+        <v>0.8889621452335754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9438841113178627</v>
+        <v>0.9081700770316784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9485818754898415</v>
+        <v>0.9268414967878627</v>
       </c>
     </row>
     <row r="5">
@@ -145,13 +796,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8442088564378079</v>
+        <v>0.8191367719447931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8533216901565985</v>
+        <v>0.8419250208208462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8608672727462198</v>
+        <v>0.8631432962767743</v>
       </c>
     </row>
     <row r="6">
@@ -159,13 +810,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.85000618908938</v>
+        <v>0.8191367719447931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.858468615944964</v>
+        <v>0.8419250208208462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.866517953369628</v>
+        <v>0.8631432962767743</v>
       </c>
     </row>
   </sheetData>
